--- a/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table16.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb149/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037E219B-C652-8D49-B15F-C6CFBAAAF4A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67B096D-4E1E-104C-ADD6-75C299779ED0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
   <si>
     <t>Fields Landing</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Smelt</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -506,12 +509,12 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -1619,10 +1622,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C80" s="2">
         <v>8143764</v>
